--- a/www/terminologies/ValueSet-jdv-mesure-lentille-prescrite-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-mesure-lentille-prescrite-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152059</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:20:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-mesure-lentille-prescrite-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-mesure-lentille-prescrite-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152059</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:20:59+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -107,19 +107,13 @@
     <t>Renouvellement</t>
   </si>
   <si>
-    <t>C43383</t>
-  </si>
-  <si>
-    <t>modèle</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-ncit</t>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
   </si>
   <si>
     <t>MED-897</t>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Consignes et conseils</t>
+  </si>
+  <si>
+    <t>67716-1</t>
+  </si>
+  <si>
+    <t>modèle du dispositif</t>
   </si>
   <si>
     <t>95300-0</t>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,23 +549,15 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -595,138 +587,138 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +728,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -756,65 +748,73 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>78</v>
       </c>
     </row>
